--- a/Mifos Automation Excels/Client/4717-SUBMITSAVINGSON01JAN2015-MONTHLYFEE-ACTIVATEON01JAN2015-WAIVECHARGE01FEB2015-PAYCHARGE01FEB2015.xlsx
+++ b/Mifos Automation Excels/Client/4717-SUBMITSAVINGSON01JAN2015-MONTHLYFEE-ACTIVATEON01JAN2015-WAIVECHARGE01FEB2015-PAYCHARGE01FEB2015.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17426"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Saving Transaction" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="Modify Transaction" sheetId="4" r:id="rId4"/>
     <sheet name="Modify Transaction1" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="49">
   <si>
     <t>ID</t>
   </si>
@@ -167,12 +167,15 @@
   </si>
   <si>
     <t>SavingPayChargeDuedate</t>
+  </si>
+  <si>
+    <t>1 January</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -254,9 +257,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="15" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -264,6 +264,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -352,7 +353,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -404,7 +405,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -598,7 +599,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -706,8 +707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -772,8 +773,8 @@
       <c r="G2" s="3">
         <v>42064</v>
       </c>
-      <c r="H2" s="5">
-        <v>42005</v>
+      <c r="H2" s="10" t="s">
+        <v>48</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>24</v>
@@ -797,6 +798,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -805,7 +807,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -815,98 +817,98 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="7">
         <v>42005</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="7">
         <v>42005</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="7">
         <v>42005</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>33</v>
       </c>
     </row>
@@ -930,26 +932,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>33</v>
       </c>
     </row>
@@ -962,7 +964,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -973,34 +975,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="7">
         <v>42036</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>33</v>
       </c>
     </row>
